--- a/Data/Test_TichPhan.xlsx
+++ b/Data/Test_TichPhan.xlsx
@@ -130,7 +130,7 @@
   <dimension ref="A1:C31"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E13" activeCellId="0" sqref="E13"/>
+      <selection pane="topLeft" activeCell="D8" activeCellId="0" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.54296875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -149,76 +149,76 @@
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="n">
-        <v>0</v>
+        <v>4.2</v>
       </c>
       <c r="B2" s="1" t="n">
-        <f aca="false">1/(1+A2)</f>
-        <v>1</v>
+        <f aca="false">(3.5*POWER(A2,2) + 5.1*A2-4.8)/(A2-0.4)</f>
+        <v>20.6210526315789</v>
       </c>
       <c r="C2" s="1"/>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="n">
-        <f aca="false">A2+1/6</f>
-        <v>0.166666666666667</v>
+        <f aca="false">A2+1.2/6</f>
+        <v>4.4</v>
       </c>
       <c r="B3" s="1" t="n">
-        <f aca="false">1/(1+A3)</f>
-        <v>0.857142857142857</v>
+        <f aca="false">(3.5*POWER(A3,2) + 5.1*A3-4.8)/(A3-0.4)</f>
+        <v>21.35</v>
       </c>
       <c r="C3" s="1"/>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="n">
-        <f aca="false">A3+1/6</f>
-        <v>0.333333333333333</v>
+        <f aca="false">A3+1.2/6</f>
+        <v>4.6</v>
       </c>
       <c r="B4" s="1" t="n">
-        <f aca="false">1/(1+A4)</f>
-        <v>0.75</v>
+        <f aca="false">(3.5*POWER(A4,2) + 5.1*A4-4.8)/(A4-0.4)</f>
+        <v>22.0761904761905</v>
       </c>
       <c r="C4" s="1"/>
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="n">
-        <f aca="false">A4+1/6</f>
-        <v>0.5</v>
+        <f aca="false">A4+1.2/6</f>
+        <v>4.8</v>
       </c>
       <c r="B5" s="1" t="n">
-        <f aca="false">1/(1+A5)</f>
-        <v>0.666666666666667</v>
+        <f aca="false">(3.5*POWER(A5,2) + 5.1*A5-4.8)/(A5-0.4)</f>
+        <v>22.8</v>
       </c>
       <c r="C5" s="1"/>
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="n">
-        <f aca="false">A5+1/6</f>
-        <v>0.666666666666667</v>
+        <f aca="false">A5+1.2/6</f>
+        <v>5</v>
       </c>
       <c r="B6" s="1" t="n">
-        <f aca="false">1/(1+A6)</f>
-        <v>0.6</v>
+        <f aca="false">(3.5*POWER(A6,2) + 5.1*A6-4.8)/(A6-0.4)</f>
+        <v>23.5217391304348</v>
       </c>
       <c r="C6" s="1"/>
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="n">
-        <f aca="false">A6+1/6</f>
-        <v>0.833333333333333</v>
+        <f aca="false">A6+1.2/6</f>
+        <v>5.2</v>
       </c>
       <c r="B7" s="1" t="n">
-        <f aca="false">1/(1+A7)</f>
-        <v>0.545454545454546</v>
+        <f aca="false">(3.5*POWER(A7,2) + 5.1*A7-4.8)/(A7-0.4)</f>
+        <v>24.2416666666667</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="1" t="n">
-        <f aca="false">A7+1/6</f>
-        <v>1</v>
+        <f aca="false">A7+1.2/6</f>
+        <v>5.4</v>
       </c>
       <c r="B8" s="1" t="n">
-        <f aca="false">1/(1+A8)</f>
-        <v>0.5</v>
+        <f aca="false">(3.5*POWER(A8,2) + 5.1*A8-4.8)/(A8-0.4)</f>
+        <v>24.96</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">

--- a/Data/Test_TichPhan.xlsx
+++ b/Data/Test_TichPhan.xlsx
@@ -32,8 +32,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="1">
+  <numFmts count="2">
     <numFmt numFmtId="164" formatCode="General"/>
+    <numFmt numFmtId="165" formatCode="mm/dd/yy"/>
   </numFmts>
   <fonts count="4">
     <font>
@@ -101,12 +102,16 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -127,10 +132,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:C31"/>
+  <dimension ref="A1:E31"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D8" activeCellId="0" sqref="D8"/>
+      <selection pane="topLeft" activeCell="C6" activeCellId="0" sqref="A5:C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.54296875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -149,77 +154,53 @@
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="n">
-        <v>4.2</v>
+        <v>1</v>
       </c>
       <c r="B2" s="1" t="n">
-        <f aca="false">(3.5*POWER(A2,2) + 5.1*A2-4.8)/(A2-0.4)</f>
-        <v>20.6210526315789</v>
+        <v>0</v>
       </c>
       <c r="C2" s="1"/>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="n">
-        <f aca="false">A2+1.2/6</f>
-        <v>4.4</v>
+        <f aca="false">A2+3/2</f>
+        <v>2.5</v>
       </c>
       <c r="B3" s="1" t="n">
-        <f aca="false">(3.5*POWER(A3,2) + 5.1*A3-4.8)/(A3-0.4)</f>
-        <v>21.35</v>
+        <f aca="false">B2+1/2</f>
+        <v>0.5</v>
       </c>
       <c r="C3" s="1"/>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="n">
-        <f aca="false">A3+1.2/6</f>
-        <v>4.6</v>
+        <f aca="false">A3+3/2</f>
+        <v>4</v>
       </c>
       <c r="B4" s="1" t="n">
-        <f aca="false">(3.5*POWER(A4,2) + 5.1*A4-4.8)/(A4-0.4)</f>
-        <v>22.0761904761905</v>
+        <f aca="false">B3+1/2</f>
+        <v>1</v>
       </c>
       <c r="C4" s="1"/>
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="1" t="n">
-        <f aca="false">A4+1.2/6</f>
-        <v>4.8</v>
-      </c>
-      <c r="B5" s="1" t="n">
-        <f aca="false">(3.5*POWER(A5,2) + 5.1*A5-4.8)/(A5-0.4)</f>
-        <v>22.8</v>
-      </c>
+      <c r="A5" s="1"/>
+      <c r="B5" s="1"/>
       <c r="C5" s="1"/>
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="1" t="n">
-        <f aca="false">A5+1.2/6</f>
-        <v>5</v>
-      </c>
-      <c r="B6" s="1" t="n">
-        <f aca="false">(3.5*POWER(A6,2) + 5.1*A6-4.8)/(A6-0.4)</f>
-        <v>23.5217391304348</v>
-      </c>
+      <c r="A6" s="1"/>
+      <c r="B6" s="1"/>
       <c r="C6" s="1"/>
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="1" t="n">
-        <f aca="false">A6+1.2/6</f>
-        <v>5.2</v>
-      </c>
-      <c r="B7" s="1" t="n">
-        <f aca="false">(3.5*POWER(A7,2) + 5.1*A7-4.8)/(A7-0.4)</f>
-        <v>24.2416666666667</v>
-      </c>
+      <c r="A7" s="1"/>
+      <c r="B7" s="1"/>
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="1" t="n">
-        <f aca="false">A7+1.2/6</f>
-        <v>5.4</v>
-      </c>
-      <c r="B8" s="1" t="n">
-        <f aca="false">(3.5*POWER(A8,2) + 5.1*A8-4.8)/(A8-0.4)</f>
-        <v>24.96</v>
-      </c>
+      <c r="A8" s="1"/>
+      <c r="B8" s="1"/>
+      <c r="E8" s="2"/>
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="1"/>
